--- a/techniqo/data_new_ticker/ASTERDM.xlsx
+++ b/techniqo/data_new_ticker/ASTERDM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G631"/>
+  <dimension ref="A1:G633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22471,6 +22471,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="C632" t="n">
+        <v>134</v>
+      </c>
+      <c r="D632" t="n">
+        <v>126</v>
+      </c>
+      <c r="E632" t="n">
+        <v>132</v>
+      </c>
+      <c r="F632" t="n">
+        <v>244821</v>
+      </c>
+      <c r="G632" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C633" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="D633" t="n">
+        <v>131.95</v>
+      </c>
+      <c r="E633" t="n">
+        <v>133.15</v>
+      </c>
+      <c r="F633" t="n">
+        <v>125046</v>
+      </c>
+      <c r="G633" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ASTERDM.xlsx
+++ b/techniqo/data_new_ticker/ASTERDM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G633"/>
+  <dimension ref="A1:G635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22521,6 +22521,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>131.95</v>
+      </c>
+      <c r="C634" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D634" t="n">
+        <v>131.95</v>
+      </c>
+      <c r="E634" t="n">
+        <v>136.65</v>
+      </c>
+      <c r="F634" t="n">
+        <v>392122</v>
+      </c>
+      <c r="G634" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>137</v>
+      </c>
+      <c r="C635" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="D635" t="n">
+        <v>137</v>
+      </c>
+      <c r="E635" t="n">
+        <v>145.65</v>
+      </c>
+      <c r="F635" t="n">
+        <v>725352</v>
+      </c>
+      <c r="G635" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
